--- a/Outputs/PtX_demand_LT.xlsx
+++ b/Outputs/PtX_demand_LT.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.000203908691209593</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>3.133351628447623e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.024665539268523e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,30 +527,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.000203908691209593</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>3.133351628447623e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.024665539268523e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.01403248634993889</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,16 +558,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.01403248634993889</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -585,18 +585,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>9.827902782993092e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.761502652839609e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.010880051879498e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -604,24 +610,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>9.827902782993092e-05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.761502652839609e-05</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>1.010880051879498e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,17 +630,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.003487021553041186</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.448074282126064e-06</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0015915965913147</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003263595920562</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.003283197281710558</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -648,28 +658,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.003487021553041186</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.448074282126064e-06</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.000471447495782198</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0015915965913147</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0003263595920562</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.003283197281710558</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -678,7 +680,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.000471447495782198</v>
+        <v>0.000393890641552741</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -690,28 +692,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.01403248634993889</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.000393890641552741</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.0009636171651648699</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003738545270779175</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.448074282126064e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.133351628447623e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00164195204722618</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003263595920562</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.003283197281710558</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -720,17 +736,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0009889928412376682</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>2.622961394133191e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.312641897502194e-05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -739,30 +761,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0009889928412376682</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>2.622961394133191e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.312641897502194e-05</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0.01292083825998528</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -774,28 +792,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.01292083825998528</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3.467063370201273e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2.152915032898363e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -803,14 +823,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0004169526670065891</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.467063370201273e-10</v>
+        <v>6.248113136027162e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.152915032898363e-11</v>
+        <v>1.486320377195297e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -818,7 +840,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -826,24 +848,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0004169526670065891</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.248113136027162e-05</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1.486320377195297e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -852,17 +868,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.001389708746792253</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.251094900161178e-06</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0010829734611768</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0003964739367207</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.003716633516751387</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -870,28 +896,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.001389708746792253</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7.251094900161178e-06</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.0004564710695266859</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0010829734611768</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0003964739367207</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.003716633516751387</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -900,7 +918,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.0004564710695266859</v>
+        <v>0.001560615532668226</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -912,28 +930,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.01292083825998528</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.001560615532668226</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.002434039269201501</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.002441183066096531</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.251094900161178e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.622961394133191e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.001160963105452925</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0003964739367207</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.003716633516751387</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -942,17 +974,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.001367417416914807</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>4.445708287726924e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001016994180446112</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -961,30 +999,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.001367417416914807</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>4.445708287726924e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0001016994180446112</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.01300363302909579</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -996,28 +1030,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.01300363302909579</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.918199021657344e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>7.04811139942833e-10</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1025,14 +1061,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.001038000926619892</v>
+      </c>
       <c r="F26" t="n">
-        <v>1.918199021657344e-09</v>
+        <v>8.924190680993359e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>7.04811139942833e-10</v>
+        <v>4.08516418395332e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1040,7 +1078,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1048,24 +1086,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.001038000926619892</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>8.924190680993359e-06</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>4.213050100346972e-12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.670186332968756e-13</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>4.08516418395332e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.686458052879049e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.715380889178418e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.55712462674254e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1075,26 +1117,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>4.213050100346972e-12</v>
+        <v>8.375249519702783e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>2.670186332968756e-13</v>
+        <v>1.295643350151406e-05</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>1.686458052879049e-11</v>
+        <v>0.0002817795873646104</v>
       </c>
       <c r="J28" t="n">
-        <v>2.715380889178418e-12</v>
+        <v>0.0005099282662934</v>
       </c>
       <c r="K28" t="n">
-        <v>2.55712462674254e-10</v>
+        <v>0.005293938082106364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1102,28 +1144,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>8.375249519702783e-05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.295643350151406e-05</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.0004575611005498155</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0002817795873646104</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0005099282662934</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.005293938082106364</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1132,7 +1166,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0004575611005498155</v>
+        <v>0.003904132150802423</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1144,23 +1178,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.01300363302909579</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.003904132150802423</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.00539969417797213</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0014600960252049</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.295643376853269e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.445708287726924e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0003875648912688954</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0005099282690087808</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.005293938337818827</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_LT.xlsx
+++ b/Outputs/PtX_demand_LT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -611,17 +611,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0007846670604052373</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>3.445060087347233e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,27 +634,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.003487021553041186</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.448074282126064e-06</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0015915965913147</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0003263595920562</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.003283197281710558</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -658,20 +652,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.000471447495782198</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.003487021553041186</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.448074282126064e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0008573152441552</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0015915965913147</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003263595920562</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.003283197281710558</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -679,120 +683,132 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.000393890641552741</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.0360089500660149</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.132648279294923e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0078353990726053</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0102817325873576</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0019754552973177</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03213083429072289</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0.01403248634993889</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0009636171651648699</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.003738545270779175</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.448074282126064e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.133351628447623e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.00164195204722618</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0003263595920562</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.003283197281710558</v>
-      </c>
+        <v>0.000471447495782198</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0009889928412376682</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.000393890641552741</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>2.622961394133191e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.312641897502194e-05</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.01403248634993889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0009636171651648699</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04053216239719931</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.577455707507529e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.008692714630095664</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01195813523545725</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0023018148893739</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.03541403157243345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.01292083825998528</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0009889928412376682</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>2.622961394133191e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.312641897502194e-05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -801,46 +817,38 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>3.467063370201273e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2.152915032898363e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0004169526670065891</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.248113136027162e-05</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.01292083825998528</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1.486320377195297e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -849,17 +857,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3.467063370201273e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.152915032898363e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -867,28 +879,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0004169526670065891</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.001389708746792253</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.251094900161178e-06</v>
-      </c>
+        <v>6.248113136027162e-05</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0010829734611768</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0003964739367207</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.003716633516751387</v>
-      </c>
+        <v>1.486320377195297e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -896,20 +904,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.0004564710695266859</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0004126675344026147</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3.717762580518311e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -917,9 +927,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.001560615532668226</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -930,30 +938,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0.01292083825998528</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.002434039269201501</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.002441183066096531</v>
+        <v>0.001389708746792253</v>
       </c>
       <c r="G21" t="n">
         <v>7.251094900161178e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>2.622961394133191e-08</v>
+        <v>0.0010436587917408</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001160963105452925</v>
+        <v>0.0010829734611768</v>
       </c>
       <c r="J21" t="n">
         <v>0.0003964739367207</v>
@@ -965,40 +969,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.001367417416914807</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0091903822788067</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.367771066565236e-05</v>
+      </c>
       <c r="H22" t="n">
-        <v>4.445708287726924e-08</v>
+        <v>0.0073873172301697</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001016994180446112</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.004741817687910699</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001753039842156</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.03116482720734355</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.0004564710695266859</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1009,17 +1021,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.01300363302909579</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.001560615532668226</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1030,30 +1042,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0.01292083825998528</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002434039269201501</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.918199021657344e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.01204423287930585</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.092880556581354e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.008431002251524442</v>
+      </c>
       <c r="I25" t="n">
-        <v>7.04811139942833e-10</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.005939958419168808</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0021495137788767</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.03488146072409494</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1061,16 +1085,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.001038000926619892</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>8.924190680993359e-06</v>
+        <v>0.001367417416914807</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>4.445708287726924e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>4.08516418395332e-06</v>
+        <v>0.0001016994180446112</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1078,7 +1102,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1087,56 +1111,38 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>4.213050100346972e-12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.670186332968756e-13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1.686458052879049e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.715380889178418e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.55712462674254e-10</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.01300363302909579</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>8.375249519702783e-05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.295643350151406e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0002817795873646104</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0005099282662934</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.005293938082106364</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1144,20 +1150,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.0004575611005498155</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.918199021657344e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>7.04811139942833e-10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1166,48 +1174,210 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.003904132150802423</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.001038000926619892</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.924190680993359e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.08516418395332e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1.862511076346868e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1.291985523102099e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>4.213050100346972e-12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.670186332968756e-13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.020933736636608e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.686458052879049e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.715380889178418e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.55712462674254e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>8.375249519702783e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.295643350151406e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0013669681580208</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0002817795873646104</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0005099282662934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.005293938082106364</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0002889457020113435</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.037586875746204e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006699345703858</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0008284153699908</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.001508930617589</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.02904665318105566</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.0004575611005498155</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.003904132150802423</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.01300363302909579</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.00539969417797213</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0014600960252049</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.295643376853269e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4.445708287726924e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0003875648912688954</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0005099282690087808</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.005293938337818827</v>
+      <c r="F37" t="n">
+        <v>0.001767666837979713</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.333230252599473e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.008066358359171015</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.001228900116490717</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.002018858886597781</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.03434059151887449</v>
       </c>
     </row>
   </sheetData>
